--- a/biology/Botanique/Orlaya_de_Koch/Orlaya_de_Koch.xlsx
+++ b/biology/Botanique/Orlaya_de_Koch/Orlaya_de_Koch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orlaya daucoides (syn. Orlaya platycarpos W.D.J.Koch, 1824), en français Orlaya à fruits plats ou Orlaya de Koch, est une espèce de plantes à fleurs annuelle de la famille des Apiaceae et du genre Orlaya, originaire du bassin méditerranéen.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'INPN      (24 décembre 2020)[4] et World Flora Online (WFO)       (24 décembre 2020)[5], Orlaya daucoides (L.) Greuter, 1967 est synonyme de Orlaya grandiflora (L.) Hoffm., 1814. La différence entre les deux espèces serait que Orlaya daucoides possède moins de rayons et des pétales extérieurs plus courts[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'INPN      (24 décembre 2020) et World Flora Online (WFO)       (24 décembre 2020), Orlaya daucoides (L.) Greuter, 1967 est synonyme de Orlaya grandiflora (L.) Hoffm., 1814. La différence entre les deux espèces serait que Orlaya daucoides possède moins de rayons et des pétales extérieurs plus courts.
 			Plante entière fleurie.
 			Feuille.
 			Ombelle..
@@ -546,9 +560,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orlaya daucoides est présente dans la Région méditerranéenne, particulièrement en Espagne, en Grèce, en Israël[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orlaya daucoides est présente dans la Région méditerranéenne, particulièrement en Espagne, en Grèce, en Israël.
 </t>
         </is>
       </c>
